--- a/projekti_tunnit.xlsx
+++ b/projekti_tunnit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samu.makinen\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C8081A-6794-47D7-8FCD-A9CF0CA3CC13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DCB538-7AF0-4A24-93D9-B57212BB444C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21795" windowHeight="10965" activeTab="2" xr2:uid="{7D6B4645-0A96-45E6-AF3D-54C817863503}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21795" windowHeight="10965" xr2:uid="{7D6B4645-0A96-45E6-AF3D-54C817863503}"/>
   </bookViews>
   <sheets>
     <sheet name="suunniteltu" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="12">
   <si>
     <t>Päiväys</t>
   </si>
@@ -375,7 +375,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1468,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12E02FF-6CDA-4209-BB72-36B0F0F3C84B}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,15 +1761,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BD6F4A-A8C5-44BC-99D3-67E10E80E26A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -1846,10 +1846,160 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
       <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44511</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44523</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44524</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1863,7 +2013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD359761-CAFE-4399-A1D8-9BBFAFFB9CE3}">
   <dimension ref="B1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1921,7 +2071,7 @@
       </c>
       <c r="D4" s="7">
         <f>SUMIF(toteutunut!$B$2:$B$23,yhteenveto!B4,toteutunut!$C$2:$C$23)</f>
-        <v>0</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
